--- a/data/trans_bre/P1423_2016_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1423_2016_2023-Provincia-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.215882510923699</v>
+        <v>1.273419823425389</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1473656532648111</v>
+        <v>0.0939140009731364</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.1377088584241424</v>
+        <v>0.2017145548620468</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.008528287569892337</v>
+        <v>-0.017608130528817</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.481144560630348</v>
+        <v>9.837373843423153</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.094567540298097</v>
+        <v>4.04968476516038</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4.284192180101767</v>
+        <v>4.883896982930567</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5.119938627970948</v>
+        <v>5.732541601274972</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>2.891337224088442</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.9628078775978695</v>
+        <v>0.9628078775978692</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.415033971437735</v>
+        <v>1.486293855693819</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.130267400712087</v>
+        <v>2.238553411766809</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4495590610553796</v>
+        <v>0.5091327111493059</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2387552790334847</v>
+        <v>0.2554183231670674</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.749447956082959</v>
+        <v>5.891337601852953</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.354849724409471</v>
+        <v>8.59819166166702</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>9.081303566139715</v>
+        <v>9.792632104736809</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.114367913558041</v>
+        <v>2.233149750819524</v>
       </c>
     </row>
     <row r="10">
@@ -737,14 +737,14 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.597066406141165</v>
+        <v>2.639271298046652</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.365838656359325</v>
+        <v>-1.567224804461693</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>-0.1409609937642858</v>
+        <v>-0.1509115365696481</v>
       </c>
     </row>
     <row r="12">
@@ -755,14 +755,14 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.725081112745849</v>
+        <v>7.935942798973381</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.259089384677032</v>
+        <v>6.29856595223918</v>
       </c>
       <c r="E12" s="6" t="inlineStr"/>
       <c r="F12" s="6" t="n">
-        <v>1.029861926259517</v>
+        <v>1.122678215353237</v>
       </c>
     </row>
     <row r="13">
@@ -780,13 +780,13 @@
         <v>2.787861735384344</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6534174044739507</v>
+        <v>0.6534174044739521</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>1.416492612109512</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.1311293139897473</v>
+        <v>0.1311293139897476</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1092555528658112</v>
+        <v>0.1832661681610265</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.152947635329869</v>
+        <v>-2.918983608969567</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05355596794725305</v>
+        <v>-0.1471402449410297</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3976151394576452</v>
+        <v>-0.402278699195187</v>
       </c>
     </row>
     <row r="15">
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.736805770289447</v>
+        <v>5.581506141299704</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.502447433532816</v>
+        <v>3.491862933937499</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5.500330043700245</v>
+        <v>4.834811826298641</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.110875111290174</v>
+        <v>1.132259452010135</v>
       </c>
     </row>
     <row r="16">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.538194765450453</v>
+        <v>1.640648837361961</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7051136942650308</v>
+        <v>0.8050343505885438</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.2022760265751015</v>
+        <v>0.1556113802099739</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.05140707325560295</v>
+        <v>0.1695065353368411</v>
       </c>
     </row>
     <row r="18">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.02719828975377</v>
+        <v>11.20432357612501</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.018109799725349</v>
+        <v>5.27766947610913</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5.995655207920704</v>
+        <v>5.863365495252484</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6.875957364002433</v>
+        <v>11.45998789839532</v>
       </c>
     </row>
     <row r="19">
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.335166525664681</v>
+        <v>4.39002468669342</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.609528764471895</v>
+        <v>-3.017134531705797</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.184556851358801</v>
+        <v>1.40266152606076</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2911956140575462</v>
+        <v>-0.311302462987234</v>
       </c>
     </row>
     <row r="21">
@@ -945,16 +945,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.96563814933701</v>
+        <v>12.03203405733759</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.510925570722698</v>
+        <v>4.55094470482201</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>21.84685432372902</v>
+        <v>28.12483418126548</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.771669324173527</v>
+        <v>0.8547795203745151</v>
       </c>
     </row>
     <row r="22">
@@ -989,16 +989,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.383018211479589</v>
+        <v>2.407853445735719</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5704531046189641</v>
+        <v>0.7448405550124793</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.8541073184895025</v>
+        <v>0.7956511646719594</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.06660717537100126</v>
+        <v>0.09801286618371231</v>
       </c>
     </row>
     <row r="24">
@@ -1009,16 +1009,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.74584932739743</v>
+        <v>6.763908106385208</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.272029264571759</v>
+        <v>6.122791942927142</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>6.824852985220775</v>
+        <v>6.773596104711515</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.38838598321656</v>
+        <v>1.316625633746962</v>
       </c>
     </row>
     <row r="25">
@@ -1036,7 +1036,7 @@
         <v>4.924893841279811</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>5.035059004542643</v>
+        <v>5.035059004542644</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>1.688276571918022</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.582606092615702</v>
+        <v>2.791525481398069</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.186296307937774</v>
+        <v>3.09220999345675</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5630905210094335</v>
+        <v>0.719024115715409</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.7964632609006274</v>
+        <v>0.7316981867056901</v>
       </c>
     </row>
     <row r="27">
@@ -1073,16 +1073,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.418385796160424</v>
+        <v>7.622461303402933</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.093369735748298</v>
+        <v>7.010007602494636</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.450551217233189</v>
+        <v>3.680677768110463</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.049983412000226</v>
+        <v>3.2017099675608</v>
       </c>
     </row>
     <row r="28">
@@ -1100,13 +1100,13 @@
         <v>4.781093856424272</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>3.417553164564072</v>
+        <v>3.41755316456407</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>2.299789269924982</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>0.7114116201302876</v>
+        <v>0.7114116201302874</v>
       </c>
     </row>
     <row r="29">
@@ -1117,16 +1117,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.788970451204182</v>
+        <v>3.787850804024305</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.297281889727754</v>
+        <v>2.390333144164512</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>1.531721883898092</v>
+        <v>1.524234871106572</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.426733882264283</v>
+        <v>0.4379721818695045</v>
       </c>
     </row>
     <row r="30">
@@ -1137,16 +1137,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.861539509062981</v>
+        <v>5.925380679715946</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.400926555599149</v>
+        <v>4.496586532479223</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3.359459704637386</v>
+        <v>3.385958816075177</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1.038068494781388</v>
+        <v>1.0417633364927</v>
       </c>
     </row>
     <row r="31">
